--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H2">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I2">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J2">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>12.1911538106663</v>
+        <v>0.004819666666666667</v>
       </c>
       <c r="N2">
-        <v>12.1911538106663</v>
+        <v>0.014459</v>
       </c>
       <c r="O2">
-        <v>0.1323445532876965</v>
+        <v>4.905670228042789E-05</v>
       </c>
       <c r="P2">
-        <v>0.1323445532876965</v>
+        <v>4.90567022804279E-05</v>
       </c>
       <c r="Q2">
-        <v>41.01253476512881</v>
+        <v>0.04581422510555556</v>
       </c>
       <c r="R2">
-        <v>41.01253476512881</v>
+        <v>0.41232802595</v>
       </c>
       <c r="S2">
-        <v>0.0006699401640736975</v>
+        <v>6.85282872088369E-07</v>
       </c>
       <c r="T2">
-        <v>0.0006699401640736975</v>
+        <v>6.852828720883691E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H3">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I3">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J3">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>20.1920933080529</v>
+        <v>0.004308666666666666</v>
       </c>
       <c r="N3">
-        <v>20.1920933080529</v>
+        <v>0.012926</v>
       </c>
       <c r="O3">
-        <v>0.2192010379247026</v>
+        <v>4.385551792494715E-05</v>
       </c>
       <c r="P3">
-        <v>0.2192010379247026</v>
+        <v>4.385551792494716E-05</v>
       </c>
       <c r="Q3">
-        <v>67.92867530329218</v>
+        <v>0.04095682092222222</v>
       </c>
       <c r="R3">
-        <v>67.92867530329218</v>
+        <v>0.3686113883</v>
       </c>
       <c r="S3">
-        <v>0.001109615587980924</v>
+        <v>6.126264890112911E-07</v>
       </c>
       <c r="T3">
-        <v>0.001109615587980924</v>
+        <v>6.126264890112912E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H4">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I4">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J4">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.7335306995914</v>
+        <v>16.61914433333333</v>
       </c>
       <c r="N4">
-        <v>59.7335306995914</v>
+        <v>49.857433</v>
       </c>
       <c r="O4">
-        <v>0.6484544087876011</v>
+        <v>0.169157012735831</v>
       </c>
       <c r="P4">
-        <v>0.6484544087876011</v>
+        <v>0.169157012735831</v>
       </c>
       <c r="Q4">
-        <v>200.9509142865114</v>
+        <v>157.9763233036278</v>
       </c>
       <c r="R4">
-        <v>200.9509142865114</v>
+        <v>1421.78690973265</v>
       </c>
       <c r="S4">
-        <v>0.003282535187323533</v>
+        <v>0.002362988096078112</v>
       </c>
       <c r="T4">
-        <v>0.003282535187323533</v>
+        <v>0.002362988096078112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>310.341986937697</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H5">
-        <v>310.341986937697</v>
+        <v>28.51705</v>
       </c>
       <c r="I5">
-        <v>0.4669804274007704</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J5">
-        <v>0.4669804274007704</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1911538106663</v>
+        <v>20.98681533333334</v>
       </c>
       <c r="N5">
-        <v>12.1911538106663</v>
+        <v>62.960446</v>
       </c>
       <c r="O5">
-        <v>0.1323445532876965</v>
+        <v>0.2136131029023416</v>
       </c>
       <c r="P5">
-        <v>0.1323445532876965</v>
+        <v>0.2136131029023416</v>
       </c>
       <c r="Q5">
-        <v>3783.426896665256</v>
+        <v>199.4940207338111</v>
       </c>
       <c r="R5">
-        <v>3783.426896665256</v>
+        <v>1795.4461866043</v>
       </c>
       <c r="S5">
-        <v>0.06180231605845252</v>
+        <v>0.002984004098682113</v>
       </c>
       <c r="T5">
-        <v>0.06180231605845252</v>
+        <v>0.002984004098682113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>310.341986937697</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H6">
-        <v>310.341986937697</v>
+        <v>28.51705</v>
       </c>
       <c r="I6">
-        <v>0.4669804274007704</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J6">
-        <v>0.4669804274007704</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.1920933080529</v>
+        <v>60.62995566666667</v>
       </c>
       <c r="N6">
-        <v>20.1920933080529</v>
+        <v>181.889867</v>
       </c>
       <c r="O6">
-        <v>0.2192010379247026</v>
+        <v>0.6171185457670396</v>
       </c>
       <c r="P6">
-        <v>0.2192010379247026</v>
+        <v>0.6171185457670397</v>
       </c>
       <c r="Q6">
-        <v>6266.454357652513</v>
+        <v>576.3291590813723</v>
       </c>
       <c r="R6">
-        <v>6266.454357652513</v>
+        <v>5186.962431732351</v>
       </c>
       <c r="S6">
-        <v>0.1023625943767701</v>
+        <v>0.008620652220868072</v>
       </c>
       <c r="T6">
-        <v>0.1023625943767701</v>
+        <v>0.008620652220868073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>310.341986937697</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H7">
-        <v>310.341986937697</v>
+        <v>28.51705</v>
       </c>
       <c r="I7">
-        <v>0.4669804274007704</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J7">
-        <v>0.4669804274007704</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>59.7335306995914</v>
+        <v>0.001810333333333333</v>
       </c>
       <c r="N7">
-        <v>59.7335306995914</v>
+        <v>0.005431</v>
       </c>
       <c r="O7">
-        <v>0.6484544087876011</v>
+        <v>1.842637458226737E-05</v>
       </c>
       <c r="P7">
-        <v>0.6484544087876011</v>
+        <v>1.842637458226737E-05</v>
       </c>
       <c r="Q7">
-        <v>18537.82260411512</v>
+        <v>0.01720845539444444</v>
       </c>
       <c r="R7">
-        <v>18537.82260411512</v>
+        <v>0.15487609855</v>
       </c>
       <c r="S7">
-        <v>0.3028155169655478</v>
+        <v>2.574017067786107E-07</v>
       </c>
       <c r="T7">
-        <v>0.3028155169655478</v>
+        <v>2.574017067786107E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.9819686662035</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H8">
-        <v>97.9819686662035</v>
+        <v>931.578095</v>
       </c>
       <c r="I8">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J8">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>12.1911538106663</v>
+        <v>0.004819666666666667</v>
       </c>
       <c r="N8">
-        <v>12.1911538106663</v>
+        <v>0.014459</v>
       </c>
       <c r="O8">
-        <v>0.1323445532876965</v>
+        <v>4.905670228042789E-05</v>
       </c>
       <c r="P8">
-        <v>0.1323445532876965</v>
+        <v>4.90567022804279E-05</v>
       </c>
       <c r="Q8">
-        <v>1194.513250681573</v>
+        <v>1.496631963956111</v>
       </c>
       <c r="R8">
-        <v>1194.513250681573</v>
+        <v>13.469687675605</v>
       </c>
       <c r="S8">
-        <v>0.01951238585307434</v>
+        <v>2.238641488219193E-05</v>
       </c>
       <c r="T8">
-        <v>0.01951238585307434</v>
+        <v>2.238641488219193E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.9819686662035</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H9">
-        <v>97.9819686662035</v>
+        <v>931.578095</v>
       </c>
       <c r="I9">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J9">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>20.1920933080529</v>
+        <v>0.004308666666666666</v>
       </c>
       <c r="N9">
-        <v>20.1920933080529</v>
+        <v>0.012926</v>
       </c>
       <c r="O9">
-        <v>0.2192010379247026</v>
+        <v>4.385551792494715E-05</v>
       </c>
       <c r="P9">
-        <v>0.2192010379247026</v>
+        <v>4.385551792494716E-05</v>
       </c>
       <c r="Q9">
-        <v>1978.461053814697</v>
+        <v>1.337953161774444</v>
       </c>
       <c r="R9">
-        <v>1978.461053814697</v>
+        <v>12.04157845597</v>
       </c>
       <c r="S9">
-        <v>0.03231818102920603</v>
+        <v>2.001291920376325E-05</v>
       </c>
       <c r="T9">
-        <v>0.03231818102920603</v>
+        <v>2.001291920376326E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.9819686662035</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H10">
-        <v>97.9819686662035</v>
+        <v>931.578095</v>
       </c>
       <c r="I10">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J10">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.7335306995914</v>
+        <v>16.61914433333333</v>
       </c>
       <c r="N10">
-        <v>59.7335306995914</v>
+        <v>49.857433</v>
       </c>
       <c r="O10">
-        <v>0.6484544087876011</v>
+        <v>0.169157012735831</v>
       </c>
       <c r="P10">
-        <v>0.6484544087876011</v>
+        <v>0.169157012735831</v>
       </c>
       <c r="Q10">
-        <v>5852.808933329069</v>
+        <v>5160.676939525571</v>
       </c>
       <c r="R10">
-        <v>5852.808933329069</v>
+        <v>46446.09245573013</v>
       </c>
       <c r="S10">
-        <v>0.09560569224851628</v>
+        <v>0.07719269521399039</v>
       </c>
       <c r="T10">
-        <v>0.09560569224851628</v>
+        <v>0.07719269521399039</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.30706353823091</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H11">
-        <v>78.30706353823091</v>
+        <v>931.578095</v>
       </c>
       <c r="I11">
-        <v>0.1178308689726974</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J11">
-        <v>0.1178308689726974</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1911538106663</v>
+        <v>20.98681533333334</v>
       </c>
       <c r="N11">
-        <v>12.1911538106663</v>
+        <v>62.960446</v>
       </c>
       <c r="O11">
-        <v>0.1323445532876965</v>
+        <v>0.2136131029023416</v>
       </c>
       <c r="P11">
-        <v>0.1323445532876965</v>
+        <v>0.2136131029023416</v>
       </c>
       <c r="Q11">
-        <v>954.6534560561918</v>
+        <v>6516.952482781153</v>
       </c>
       <c r="R11">
-        <v>954.6534560561918</v>
+        <v>58652.57234503037</v>
       </c>
       <c r="S11">
-        <v>0.01559427371769273</v>
+        <v>0.09747967807758777</v>
       </c>
       <c r="T11">
-        <v>0.01559427371769273</v>
+        <v>0.09747967807758777</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78.30706353823091</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H12">
-        <v>78.30706353823091</v>
+        <v>931.578095</v>
       </c>
       <c r="I12">
-        <v>0.1178308689726974</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J12">
-        <v>0.1178308689726974</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.1920933080529</v>
+        <v>60.62995566666667</v>
       </c>
       <c r="N12">
-        <v>20.1920933080529</v>
+        <v>181.889867</v>
       </c>
       <c r="O12">
-        <v>0.2192010379247026</v>
+        <v>0.6171185457670396</v>
       </c>
       <c r="P12">
-        <v>0.2192010379247026</v>
+        <v>0.6171185457670397</v>
       </c>
       <c r="Q12">
-        <v>1581.183533643586</v>
+        <v>18827.17953329593</v>
       </c>
       <c r="R12">
-        <v>1581.183533643586</v>
+        <v>169444.6157996634</v>
       </c>
       <c r="S12">
-        <v>0.0258286487783849</v>
+        <v>0.2816143596050011</v>
       </c>
       <c r="T12">
-        <v>0.0258286487783849</v>
+        <v>0.2816143596050011</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>78.30706353823091</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H13">
-        <v>78.30706353823091</v>
+        <v>931.578095</v>
       </c>
       <c r="I13">
-        <v>0.1178308689726974</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J13">
-        <v>0.1178308689726974</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>59.7335306995914</v>
+        <v>0.001810333333333333</v>
       </c>
       <c r="N13">
-        <v>59.7335306995914</v>
+        <v>0.005431</v>
       </c>
       <c r="O13">
-        <v>0.6484544087876011</v>
+        <v>1.842637458226737E-05</v>
       </c>
       <c r="P13">
-        <v>0.6484544087876011</v>
+        <v>1.842637458226737E-05</v>
       </c>
       <c r="Q13">
-        <v>4677.55738385577</v>
+        <v>0.5621556259938888</v>
       </c>
       <c r="R13">
-        <v>4677.55738385577</v>
+        <v>5.059400633945</v>
       </c>
       <c r="S13">
-        <v>0.07640794647661979</v>
+        <v>8.408646464152734E-06</v>
       </c>
       <c r="T13">
-        <v>0.07640794647661979</v>
+        <v>8.408646464152736E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>36.630602596677</v>
+        <v>104.560098</v>
       </c>
       <c r="H14">
-        <v>36.630602596677</v>
+        <v>313.680294</v>
       </c>
       <c r="I14">
-        <v>0.05511911109848659</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J14">
-        <v>0.05511911109848659</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>12.1911538106663</v>
+        <v>0.004819666666666667</v>
       </c>
       <c r="N14">
-        <v>12.1911538106663</v>
+        <v>0.014459</v>
       </c>
       <c r="O14">
-        <v>0.1323445532876965</v>
+        <v>4.905670228042789E-05</v>
       </c>
       <c r="P14">
-        <v>0.1323445532876965</v>
+        <v>4.90567022804279E-05</v>
       </c>
       <c r="Q14">
-        <v>446.5693104334817</v>
+        <v>0.503944818994</v>
       </c>
       <c r="R14">
-        <v>446.5693104334817</v>
+        <v>4.535503370946</v>
       </c>
       <c r="S14">
-        <v>0.007294714135944119</v>
+        <v>7.5379372266712E-06</v>
       </c>
       <c r="T14">
-        <v>0.007294714135944119</v>
+        <v>7.537937226671202E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>36.630602596677</v>
+        <v>104.560098</v>
       </c>
       <c r="H15">
-        <v>36.630602596677</v>
+        <v>313.680294</v>
       </c>
       <c r="I15">
-        <v>0.05511911109848659</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J15">
-        <v>0.05511911109848659</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>20.1920933080529</v>
+        <v>0.004308666666666666</v>
       </c>
       <c r="N15">
-        <v>20.1920933080529</v>
+        <v>0.012926</v>
       </c>
       <c r="O15">
-        <v>0.2192010379247026</v>
+        <v>4.385551792494715E-05</v>
       </c>
       <c r="P15">
-        <v>0.2192010379247026</v>
+        <v>4.385551792494716E-05</v>
       </c>
       <c r="Q15">
-        <v>739.6485455623068</v>
+        <v>0.450514608916</v>
       </c>
       <c r="R15">
-        <v>739.6485455623068</v>
+        <v>4.054631480244</v>
       </c>
       <c r="S15">
-        <v>0.01208216636227525</v>
+        <v>6.738735499823772E-06</v>
       </c>
       <c r="T15">
-        <v>0.01208216636227525</v>
+        <v>6.738735499823775E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>36.630602596677</v>
+        <v>104.560098</v>
       </c>
       <c r="H16">
-        <v>36.630602596677</v>
+        <v>313.680294</v>
       </c>
       <c r="I16">
-        <v>0.05511911109848659</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J16">
-        <v>0.05511911109848659</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.7335306995914</v>
+        <v>16.61914433333333</v>
       </c>
       <c r="N16">
-        <v>59.7335306995914</v>
+        <v>49.857433</v>
       </c>
       <c r="O16">
-        <v>0.6484544087876011</v>
+        <v>0.169157012735831</v>
       </c>
       <c r="P16">
-        <v>0.6484544087876011</v>
+        <v>0.169157012735831</v>
       </c>
       <c r="Q16">
-        <v>2188.075224753138</v>
+        <v>1737.699360169478</v>
       </c>
       <c r="R16">
-        <v>2188.075224753138</v>
+        <v>15639.2942415253</v>
       </c>
       <c r="S16">
-        <v>0.03574223060026722</v>
+        <v>0.02599226780807561</v>
       </c>
       <c r="T16">
-        <v>0.03574223060026722</v>
+        <v>0.02599226780807561</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>137.94597810888</v>
+        <v>104.560098</v>
       </c>
       <c r="H17">
-        <v>137.94597810888</v>
+        <v>313.680294</v>
       </c>
       <c r="I17">
-        <v>0.2075712424578709</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J17">
-        <v>0.2075712424578709</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.1911538106663</v>
+        <v>20.98681533333334</v>
       </c>
       <c r="N17">
-        <v>12.1911538106663</v>
+        <v>62.960446</v>
       </c>
       <c r="O17">
-        <v>0.1323445532876965</v>
+        <v>0.2136131029023416</v>
       </c>
       <c r="P17">
-        <v>0.1323445532876965</v>
+        <v>0.2136131029023416</v>
       </c>
       <c r="Q17">
-        <v>1681.720636688163</v>
+        <v>2194.383467961236</v>
       </c>
       <c r="R17">
-        <v>1681.720636688163</v>
+        <v>19749.45121165113</v>
       </c>
       <c r="S17">
-        <v>0.02747092335845905</v>
+        <v>0.03282328582275551</v>
       </c>
       <c r="T17">
-        <v>0.02747092335845905</v>
+        <v>0.03282328582275552</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,1233 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>137.94597810888</v>
+        <v>104.560098</v>
       </c>
       <c r="H18">
-        <v>137.94597810888</v>
+        <v>313.680294</v>
       </c>
       <c r="I18">
-        <v>0.2075712424578709</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J18">
-        <v>0.2075712424578709</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.1920933080529</v>
+        <v>60.62995566666667</v>
       </c>
       <c r="N18">
-        <v>20.1920933080529</v>
+        <v>181.889867</v>
       </c>
       <c r="O18">
-        <v>0.2192010379247026</v>
+        <v>0.6171185457670396</v>
       </c>
       <c r="P18">
-        <v>0.2192010379247026</v>
+        <v>0.6171185457670397</v>
       </c>
       <c r="Q18">
-        <v>2785.418061445128</v>
+        <v>6339.474106242322</v>
       </c>
       <c r="R18">
-        <v>2785.418061445128</v>
+        <v>57055.2669561809</v>
       </c>
       <c r="S18">
-        <v>0.04549983179008538</v>
+        <v>0.09482498095397839</v>
       </c>
       <c r="T18">
-        <v>0.04549983179008538</v>
+        <v>0.09482498095397841</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>104.560098</v>
+      </c>
+      <c r="H19">
+        <v>313.680294</v>
+      </c>
+      <c r="I19">
+        <v>0.1536576426108162</v>
+      </c>
+      <c r="J19">
+        <v>0.1536576426108162</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.001810333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.005431</v>
+      </c>
+      <c r="O19">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="P19">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="Q19">
+        <v>0.189288630746</v>
+      </c>
+      <c r="R19">
+        <v>1.703597676714</v>
+      </c>
+      <c r="S19">
+        <v>2.831353280175067E-06</v>
+      </c>
+      <c r="T19">
+        <v>2.831353280175068E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>78.45345033333332</v>
+      </c>
+      <c r="H20">
+        <v>235.360351</v>
+      </c>
+      <c r="I20">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="J20">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.004819666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.014459</v>
+      </c>
+      <c r="O20">
+        <v>4.905670228042789E-05</v>
+      </c>
+      <c r="P20">
+        <v>4.90567022804279E-05</v>
+      </c>
+      <c r="Q20">
+        <v>0.3781194794565555</v>
+      </c>
+      <c r="R20">
+        <v>3.403075315109</v>
+      </c>
+      <c r="S20">
+        <v>5.655859119684771E-06</v>
+      </c>
+      <c r="T20">
+        <v>5.655859119684772E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>78.45345033333332</v>
+      </c>
+      <c r="H21">
+        <v>235.360351</v>
+      </c>
+      <c r="I21">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="J21">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.004308666666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.012926</v>
+      </c>
+      <c r="O21">
+        <v>4.385551792494715E-05</v>
+      </c>
+      <c r="P21">
+        <v>4.385551792494716E-05</v>
+      </c>
+      <c r="Q21">
+        <v>0.3380297663362222</v>
+      </c>
+      <c r="R21">
+        <v>3.042267897026</v>
+      </c>
+      <c r="S21">
+        <v>5.05620270980326E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.056202709803261E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>78.45345033333332</v>
+      </c>
+      <c r="H22">
+        <v>235.360351</v>
+      </c>
+      <c r="I22">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="J22">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.61914433333333</v>
+      </c>
+      <c r="N22">
+        <v>49.857433</v>
+      </c>
+      <c r="O22">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="P22">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="Q22">
+        <v>1303.829214537665</v>
+      </c>
+      <c r="R22">
+        <v>11734.46293083898</v>
+      </c>
+      <c r="S22">
+        <v>0.01950249789868749</v>
+      </c>
+      <c r="T22">
+        <v>0.01950249789868749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>78.45345033333332</v>
+      </c>
+      <c r="H23">
+        <v>235.360351</v>
+      </c>
+      <c r="I23">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="J23">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>20.98681533333334</v>
+      </c>
+      <c r="N23">
+        <v>62.960446</v>
+      </c>
+      <c r="O23">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="P23">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="Q23">
+        <v>1646.488074408505</v>
+      </c>
+      <c r="R23">
+        <v>14818.39266967655</v>
+      </c>
+      <c r="S23">
+        <v>0.02462794195231486</v>
+      </c>
+      <c r="T23">
+        <v>0.02462794195231486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>137.94597810888</v>
-      </c>
-      <c r="H19">
-        <v>137.94597810888</v>
-      </c>
-      <c r="I19">
-        <v>0.2075712424578709</v>
-      </c>
-      <c r="J19">
-        <v>0.2075712424578709</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>59.7335306995914</v>
-      </c>
-      <c r="N19">
-        <v>59.7335306995914</v>
-      </c>
-      <c r="O19">
-        <v>0.6484544087876011</v>
-      </c>
-      <c r="P19">
-        <v>0.6484544087876011</v>
-      </c>
-      <c r="Q19">
-        <v>8240.000318251947</v>
-      </c>
-      <c r="R19">
-        <v>8240.000318251947</v>
-      </c>
-      <c r="S19">
-        <v>0.1346004873093264</v>
-      </c>
-      <c r="T19">
-        <v>0.1346004873093264</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>78.45345033333332</v>
+      </c>
+      <c r="H24">
+        <v>235.360351</v>
+      </c>
+      <c r="I24">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="J24">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>60.62995566666667</v>
+      </c>
+      <c r="N24">
+        <v>181.889867</v>
+      </c>
+      <c r="O24">
+        <v>0.6171185457670396</v>
+      </c>
+      <c r="P24">
+        <v>0.6171185457670397</v>
+      </c>
+      <c r="Q24">
+        <v>4756.629215607035</v>
+      </c>
+      <c r="R24">
+        <v>42809.66294046331</v>
+      </c>
+      <c r="S24">
+        <v>0.07114900498306938</v>
+      </c>
+      <c r="T24">
+        <v>0.07114900498306939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>78.45345033333332</v>
+      </c>
+      <c r="H25">
+        <v>235.360351</v>
+      </c>
+      <c r="I25">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="J25">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.001810333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.005431</v>
+      </c>
+      <c r="O25">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="P25">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="Q25">
+        <v>0.1420268962534444</v>
+      </c>
+      <c r="R25">
+        <v>1.278242066281</v>
+      </c>
+      <c r="S25">
+        <v>2.124418761948129E-06</v>
+      </c>
+      <c r="T25">
+        <v>2.124418761948129E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>37.654794</v>
+      </c>
+      <c r="H26">
+        <v>112.964382</v>
+      </c>
+      <c r="I26">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="J26">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.004819666666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.014459</v>
+      </c>
+      <c r="O26">
+        <v>4.905670228042789E-05</v>
+      </c>
+      <c r="P26">
+        <v>4.90567022804279E-05</v>
+      </c>
+      <c r="Q26">
+        <v>0.181483555482</v>
+      </c>
+      <c r="R26">
+        <v>1.633351999338</v>
+      </c>
+      <c r="S26">
+        <v>2.71460603886614E-06</v>
+      </c>
+      <c r="T26">
+        <v>2.71460603886614E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>37.654794</v>
+      </c>
+      <c r="H27">
+        <v>112.964382</v>
+      </c>
+      <c r="I27">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="J27">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.004308666666666666</v>
+      </c>
+      <c r="N27">
+        <v>0.012926</v>
+      </c>
+      <c r="O27">
+        <v>4.385551792494715E-05</v>
+      </c>
+      <c r="P27">
+        <v>4.385551792494716E-05</v>
+      </c>
+      <c r="Q27">
+        <v>0.162241955748</v>
+      </c>
+      <c r="R27">
+        <v>1.460177601732</v>
+      </c>
+      <c r="S27">
+        <v>2.426792838950392E-06</v>
+      </c>
+      <c r="T27">
+        <v>2.426792838950392E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>37.654794</v>
+      </c>
+      <c r="H28">
+        <v>112.964382</v>
+      </c>
+      <c r="I28">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="J28">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>16.61914433333333</v>
+      </c>
+      <c r="N28">
+        <v>49.857433</v>
+      </c>
+      <c r="O28">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="P28">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="Q28">
+        <v>625.7904563279341</v>
+      </c>
+      <c r="R28">
+        <v>5632.114106951406</v>
+      </c>
+      <c r="S28">
+        <v>0.009360487495965417</v>
+      </c>
+      <c r="T28">
+        <v>0.009360487495965417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>37.654794</v>
+      </c>
+      <c r="H29">
+        <v>112.964382</v>
+      </c>
+      <c r="I29">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="J29">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>20.98681533333334</v>
+      </c>
+      <c r="N29">
+        <v>62.960446</v>
+      </c>
+      <c r="O29">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="P29">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="Q29">
+        <v>790.2542080927082</v>
+      </c>
+      <c r="R29">
+        <v>7112.287872834372</v>
+      </c>
+      <c r="S29">
+        <v>0.01182051365386994</v>
+      </c>
+      <c r="T29">
+        <v>0.01182051365386994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>37.654794</v>
+      </c>
+      <c r="H30">
+        <v>112.964382</v>
+      </c>
+      <c r="I30">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="J30">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>60.62995566666667</v>
+      </c>
+      <c r="N30">
+        <v>181.889867</v>
+      </c>
+      <c r="O30">
+        <v>0.6171185457670396</v>
+      </c>
+      <c r="P30">
+        <v>0.6171185457670397</v>
+      </c>
+      <c r="Q30">
+        <v>2283.008490857466</v>
+      </c>
+      <c r="R30">
+        <v>20547.07641771719</v>
+      </c>
+      <c r="S30">
+        <v>0.03414892671462473</v>
+      </c>
+      <c r="T30">
+        <v>0.03414892671462474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>37.654794</v>
+      </c>
+      <c r="H31">
+        <v>112.964382</v>
+      </c>
+      <c r="I31">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="J31">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.001810333333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.005431</v>
+      </c>
+      <c r="O31">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="P31">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="Q31">
+        <v>0.06816772873800001</v>
+      </c>
+      <c r="R31">
+        <v>0.613509558642</v>
+      </c>
+      <c r="S31">
+        <v>1.019643502115084E-06</v>
+      </c>
+      <c r="T31">
+        <v>1.019643502115084E-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>139.7743806666667</v>
+      </c>
+      <c r="H32">
+        <v>419.323142</v>
+      </c>
+      <c r="I32">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="J32">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.004819666666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.014459</v>
+      </c>
+      <c r="O32">
+        <v>4.905670228042789E-05</v>
+      </c>
+      <c r="P32">
+        <v>4.90567022804279E-05</v>
+      </c>
+      <c r="Q32">
+        <v>0.6736659233531112</v>
+      </c>
+      <c r="R32">
+        <v>6.062993310178</v>
+      </c>
+      <c r="S32">
+        <v>1.007660214092548E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.007660214092548E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>139.7743806666667</v>
+      </c>
+      <c r="H33">
+        <v>419.323142</v>
+      </c>
+      <c r="I33">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="J33">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.004308666666666666</v>
+      </c>
+      <c r="N33">
+        <v>0.012926</v>
+      </c>
+      <c r="O33">
+        <v>4.385551792494715E-05</v>
+      </c>
+      <c r="P33">
+        <v>4.385551792494716E-05</v>
+      </c>
+      <c r="Q33">
+        <v>0.6022412148324444</v>
+      </c>
+      <c r="R33">
+        <v>5.420170933492</v>
+      </c>
+      <c r="S33">
+        <v>9.008241183595184E-06</v>
+      </c>
+      <c r="T33">
+        <v>9.008241183595184E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>139.7743806666667</v>
+      </c>
+      <c r="H34">
+        <v>419.323142</v>
+      </c>
+      <c r="I34">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="J34">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>16.61914433333333</v>
+      </c>
+      <c r="N34">
+        <v>49.857433</v>
+      </c>
+      <c r="O34">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="P34">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="Q34">
+        <v>2322.93060640161</v>
+      </c>
+      <c r="R34">
+        <v>20906.37545761449</v>
+      </c>
+      <c r="S34">
+        <v>0.03474607622303401</v>
+      </c>
+      <c r="T34">
+        <v>0.03474607622303401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>139.7743806666667</v>
+      </c>
+      <c r="H35">
+        <v>419.323142</v>
+      </c>
+      <c r="I35">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="J35">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>20.98681533333334</v>
+      </c>
+      <c r="N35">
+        <v>62.960446</v>
+      </c>
+      <c r="O35">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="P35">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="Q35">
+        <v>2933.419115382371</v>
+      </c>
+      <c r="R35">
+        <v>26400.77203844133</v>
+      </c>
+      <c r="S35">
+        <v>0.04387767929713142</v>
+      </c>
+      <c r="T35">
+        <v>0.04387767929713142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>139.7743806666667</v>
+      </c>
+      <c r="H36">
+        <v>419.323142</v>
+      </c>
+      <c r="I36">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="J36">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>60.62995566666667</v>
+      </c>
+      <c r="N36">
+        <v>181.889867</v>
+      </c>
+      <c r="O36">
+        <v>0.6171185457670396</v>
+      </c>
+      <c r="P36">
+        <v>0.6171185457670397</v>
+      </c>
+      <c r="Q36">
+        <v>8474.514503155791</v>
+      </c>
+      <c r="R36">
+        <v>76270.63052840212</v>
+      </c>
+      <c r="S36">
+        <v>0.126760621289498</v>
+      </c>
+      <c r="T36">
+        <v>0.126760621289498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>139.7743806666667</v>
+      </c>
+      <c r="H37">
+        <v>419.323142</v>
+      </c>
+      <c r="I37">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="J37">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.001810333333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.005431</v>
+      </c>
+      <c r="O37">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="P37">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="Q37">
+        <v>0.2530382204668889</v>
+      </c>
+      <c r="R37">
+        <v>2.277343984202</v>
+      </c>
+      <c r="S37">
+        <v>3.784910867097744E-06</v>
+      </c>
+      <c r="T37">
+        <v>3.784910867097745E-06</v>
       </c>
     </row>
   </sheetData>
